--- a/datetime.xlsx
+++ b/datetime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>tháng giêng</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>tuần sau nữa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -412,6 +415,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -725,7 +729,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -877,6 +881,9 @@
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
